--- a/OrderOrder.xlsx
+++ b/OrderOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56413BF-21A9-48D9-9B57-841FEF32C97C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3DD2D2-03A0-4CD2-B21F-3D7D223A5366}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3180" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
